--- a/Normal2.xlsx
+++ b/Normal2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\נורמליים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\עברית\נורמליים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FDA79D-C535-47AC-B641-C2E1B54728A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B7929-B7C5-4199-9129-48567D78E8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="746">
   <si>
     <t>Serie</t>
   </si>
@@ -3472,6 +3472,30 @@
   <si>
     <t>כמוני</t>
   </si>
+  <si>
+    <t>241.5</t>
+  </si>
+  <si>
+    <t>354.84</t>
+  </si>
+  <si>
+    <t>79.676</t>
+  </si>
+  <si>
+    <t>58.5</t>
+  </si>
+  <si>
+    <t>4822.39</t>
+  </si>
+  <si>
+    <t>104747.53</t>
+  </si>
+  <si>
+    <t>323.64</t>
+  </si>
+  <si>
+    <t>69.44</t>
+  </si>
 </sst>
 </file>
 
@@ -3481,7 +3505,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3495,14 +3519,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3853,13 +3877,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F245" sqref="F245:G246"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3897,7 +3921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3932,7 +3956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3967,7 +3991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4002,7 +4026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4037,7 +4061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4078,7 +4102,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4137,7 +4161,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4190,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4225,7 +4249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4260,7 +4284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4301,7 +4325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4345,7 +4369,7 @@
         <v>19919</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4382,14 +4406,14 @@
       <c r="O13" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="P13">
-        <v>354.84</v>
-      </c>
-      <c r="Q13">
-        <v>79.676000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4426,14 +4450,14 @@
       <c r="O14" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="P14">
-        <v>241.5</v>
-      </c>
-      <c r="Q14">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4470,14 +4494,14 @@
       <c r="O15" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="P15">
-        <v>104747.53253012001</v>
-      </c>
-      <c r="Q15">
-        <v>4822.3966104417595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4514,14 +4538,14 @@
       <c r="O16" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="P16">
-        <v>323.647234701797</v>
-      </c>
-      <c r="Q16">
-        <v>69.443477810675404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4565,7 +4589,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4609,7 +4633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4644,7 +4668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4679,7 +4703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4714,7 +4738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4749,7 +4773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4784,7 +4808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4819,7 +4843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4854,7 +4878,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4889,7 +4913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4924,7 +4948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4959,7 +4983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4994,7 +5018,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5029,7 +5053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5064,7 +5088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5099,7 +5123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5134,7 +5158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5169,7 +5193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5207,7 +5231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5245,7 +5269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5283,7 +5307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5321,7 +5345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5359,7 +5383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5398,7 +5422,7 @@
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5436,7 +5460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5474,7 +5498,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5512,7 +5536,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5550,7 +5574,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5588,7 +5612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5626,7 +5650,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5664,7 +5688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5702,7 +5726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5740,7 +5764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5778,7 +5802,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5816,7 +5840,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5854,7 +5878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5892,7 +5916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5930,7 +5954,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5968,7 +5992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6006,7 +6030,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6044,7 +6068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6082,7 +6106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6120,7 +6144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6158,7 +6182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6196,7 +6220,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6234,7 +6258,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6272,7 +6296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6310,7 +6334,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6348,7 +6372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6386,7 +6410,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6424,7 +6448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6462,7 +6486,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6500,7 +6524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6538,7 +6562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6576,7 +6600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6614,7 +6638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6652,7 +6676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6690,7 +6714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6728,7 +6752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6766,7 +6790,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6801,7 +6825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6833,7 +6857,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6868,7 +6892,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6903,7 +6927,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6938,7 +6962,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6973,7 +6997,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7008,7 +7032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7043,7 +7067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7078,7 +7102,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7113,7 +7137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7148,7 +7172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7183,7 +7207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7215,7 +7239,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7247,7 +7271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7279,7 +7303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7311,7 +7335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7346,7 +7370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7378,7 +7402,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7413,7 +7437,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7445,7 +7469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7480,7 +7504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7515,7 +7539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7550,7 +7574,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7585,7 +7609,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7620,7 +7644,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7652,7 +7676,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7687,7 +7711,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7722,7 +7746,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7754,7 +7778,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7789,7 +7813,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7821,7 +7845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7856,7 +7880,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7888,7 +7912,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7923,7 +7947,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7955,7 +7979,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7990,7 +8014,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8025,7 +8049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8060,7 +8084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8095,7 +8119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8130,7 +8154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8165,7 +8189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8200,7 +8224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8235,7 +8259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8270,7 +8294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8305,7 +8329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8340,7 +8364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8375,7 +8399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8410,7 +8434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8445,7 +8469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8480,7 +8504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8515,7 +8539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8550,7 +8574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8585,7 +8609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8620,7 +8644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8655,7 +8679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8690,7 +8714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8725,7 +8749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8760,7 +8784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8795,7 +8819,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8830,7 +8854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8865,7 +8889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8900,7 +8924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8935,7 +8959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8970,7 +8994,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9005,7 +9029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9040,7 +9064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9075,7 +9099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9110,7 +9134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9145,7 +9169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9180,7 +9204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9215,7 +9239,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9250,7 +9274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9285,7 +9309,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9320,7 +9344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9355,7 +9379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9393,7 +9417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9431,7 +9455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9469,7 +9493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9507,7 +9531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9545,7 +9569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9583,7 +9607,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9621,7 +9645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9659,7 +9683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9697,7 +9721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9735,7 +9759,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9773,7 +9797,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9811,7 +9835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9849,7 +9873,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9887,7 +9911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9925,7 +9949,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9963,7 +9987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10001,7 +10025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10039,7 +10063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10077,7 +10101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10115,7 +10139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10153,7 +10177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10191,7 +10215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10229,7 +10253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10267,7 +10291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10305,7 +10329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10343,7 +10367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10381,7 +10405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10419,7 +10443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10457,7 +10481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10495,7 +10519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10533,7 +10557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10571,7 +10595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10609,7 +10633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10647,7 +10671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10685,7 +10709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10723,7 +10747,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10761,7 +10785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10799,7 +10823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10837,7 +10861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10875,7 +10899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10913,7 +10937,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10951,7 +10975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10989,7 +11013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11027,7 +11051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11065,7 +11089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11103,7 +11127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11141,7 +11165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11179,7 +11203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11217,7 +11241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11255,7 +11279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11293,7 +11317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11331,7 +11355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11369,7 +11393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11407,7 +11431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11445,7 +11469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11483,7 +11507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11515,7 +11539,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11550,7 +11574,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11588,7 +11612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11626,7 +11650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11664,7 +11688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11702,7 +11726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11740,7 +11764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11778,7 +11802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11816,7 +11840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11854,7 +11878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11892,7 +11916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11930,7 +11954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11968,7 +11992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12006,7 +12030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12044,7 +12068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12082,7 +12106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12120,7 +12144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12158,7 +12182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12196,7 +12220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12234,7 +12258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12272,7 +12296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12310,7 +12334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12348,7 +12372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12386,7 +12410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12424,7 +12448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12462,7 +12486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12500,7 +12524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12538,7 +12562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12576,7 +12600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12614,7 +12638,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12652,7 +12676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12690,7 +12714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12725,7 +12749,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12763,7 +12787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12801,7 +12825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12839,7 +12863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12877,7 +12901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12915,7 +12939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12950,7 +12974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12985,7 +13009,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13020,7 +13044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13055,7 +13079,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13090,7 +13114,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>

--- a/Normal2.xlsx
+++ b/Normal2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\עברית\נורמליים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B7929-B7C5-4199-9129-48567D78E8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F218EC4-70BB-48EF-BC47-49DB17E92D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="745">
   <si>
     <t>Serie</t>
   </si>
@@ -1258,16 +1258,6 @@
     <t>תוכן מקודם</t>
   </si>
   <si>
-    <t>8 שקל ברצון.. התמורה הכי טובה למנת פלאפאל בתל אביב.
-*והמקום טבעוני</t>
-  </si>
-  <si>
-    <t>Yuval Golan Pisante</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/2921424848081866/posts/4573171676240500/</t>
-  </si>
-  <si>
     <t>יו יו יו מצאתי איזה אושר סוף סוף (מי שיודע קצת חפרתי בפוסטים ותגובות לאנשים על מי ראה מי שמע, עכשיו נרגעתי חחח) 
 ויקטורי נתניה 🥳 (וכמובן שקניתי כמה, הבנתי שזה מתחסל מהר כמו מחבלי חיזבאללה)</t>
   </si>
@@ -1624,20 +1614,6 @@
     <t>https://www.facebook.com/groups/639502990026879/user/100028243590383/?__cft__[0]=AZVXeuE-Q5kN13FrfCj2k0Rh3CLiNwCWkhkP-UvM6FnZ3qKqE6RXHu3lpBzhhPG0D1p2xt-V4Jd2-7UfAULwdX9nLrCi6T0VSPs-fTV1XmHF1RPw0P4B-_NcZDy83v3yMDIUU2tmhrQCa7qK5egzicsfRQ89kUREn7sTtIwWsO3TMRXE-8BIMEGeuD-8xbWNLgy58m37Jku2Pa8w--4lqZ4X&amp;__tn__=-UC%2CP-R</t>
   </si>
   <si>
-    <t>הי חברים
-לילה של בריחה עם בן הזוג
-מה ממליצים?
-דייב גורדון
-דייב לוינסקי
-או דייב יד חרוצים?</t>
-  </si>
-  <si>
-    <t>Lilian Ben David Cohen</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/639502990026879/user/743168023/?__cft__[0]=AZWVTuJXTf5thJQ7sRlcGhEa5SCqMfyoFdHxg7bQoLQvmII3uQHpyLQWTk7xiA-b2qn-1Dm_Yay6eAP5J2iiCCz3jPAyHIYXj3HXCZdCjoxovVHvslmuNiVpM-w-z9FEV8bcbGrfFPZoAz2_p-NVjJMl_R1J2TIZDs3l2GJJVOiS73-v66NuFXofa9XCUBcNYzkoVQBNCfXk9a3CSR8131jq&amp;__tn__=-UC%2CP-R</t>
-  </si>
-  <si>
     <t>היי
 מישהו שהיה לאחרונה בלאונרדו קלאב ים המלח
 אשמח לחוות דעת</t>
@@ -1676,16 +1652,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/groups/639502990026879/user/100000504639654/?__cft__[0]=AZV-vwm3SKxM4e66sW4dbvX43tLfEzZwEYbMyrVVPOoQ5O44qGrg6gn4McY-k1DqojQvfZYHSOhBCjM9FrRgb8d4iQmTeO3oM9IXufNSMMiclaSQdY-lEEprG_yp6I3aW0aEz_2SjHnas1uZKiGwPnUBuAChqXcqKa3opAGCHbR1KaoP860LAwBktFAcngKdewbC6zSAUrGdNSBLQ8oluvoX&amp;__tn__=-UC%2CP-R</t>
-  </si>
-  <si>
-    <t>מישהו היה בקיבוץ אילות ? בבית הארחה , באירוח שלהם לא מלון יו ספלאש
-אשמח לחוות דעת</t>
-  </si>
-  <si>
-    <t>Hen Magen</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/639502990026879/user/100000089385838/?__cft__[0]=AZUJRDy3LTpOlGFF7T-hT61Ouyl66VmDbiPIvPCz6Q5nQGposuPDJL8xUtZV9rvd6ZSq_OhW6FYK7r8W45Py4EJdfOytHG6dTsFUDBNal0CUKJkvHZVwhNfNycAUmOEPjmmMj97dZ0aP7Ya8-m6RgOhX_FBKfUQBcTJ_5WU1DzbZGtxt-uGUm-RI_JDyUzg3DD-Gl7jySUNfDgmESo7ubShA&amp;__tn__=-UC%2CP-R</t>
   </si>
   <si>
     <t>אשמח על המלצה/דיס המלצה על מלון נווה אילן מרשת סי הוטל מבחינת אוכל וחדרים ממי שנפש שם לאחרונה.
@@ -3496,12 +3462,46 @@
   <si>
     <t>69.44</t>
   </si>
+  <si>
+    <t>* תודה, קיבלתי המון תשובות. נועלת...
+בעלי רב איתי על העניין של להישאר 10 דקות אחרי האזעקה בממ"ד. הוא אומר שאחרי 5 דקות כבר אין חשש.
+יש למישהו איזושהי הוכחה כתובה (חוץ מההנחיות של פיקוד העורף) לזה שצריך להישאר 10 דקות?
+בבקשה, זה מטריף אותי וסתם מוביל לריבים...</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/hBSamPnCXQGKWQN9/</t>
+  </si>
+  <si>
+    <t>Kineret Aloni</t>
+  </si>
+  <si>
+    <t>הילדה רוצה אוטו ממונע (דוגמא בתמונה) ליום הולדת...
+מה חשוב לוודא חוץ מהמחיר 🙂
+מה משמעות הווט?
+יש משמעות לזמן ההטענה?
+אשמח להבין איך לגשת לחיפוש.
+תודה</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/uMw5oSo2MTNhkBrM/</t>
+  </si>
+  <si>
+    <t>מישהו יודע האם ישנה בית מרקחת פתוחה עכשיו בפתח תקווה? או בקירבה. אני עם אופניים.
+הסתכלתי על בתי מרקחת תורן וכתוב שהיום פתוח מ8 עד 22 כך שלא רלוונטי.
+תודה רבה.</t>
+  </si>
+  <si>
+    <t>BebaBoba Nicky Bres</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/fYizXkUrF5Mwo5FN/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3526,6 +3526,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3563,18 +3571,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3877,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3915,10 +3929,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -4158,7 +4172,7 @@
         <v>32</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -4319,7 +4333,7 @@
         <v>22</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>10</v>
@@ -4360,7 +4374,7 @@
         <v>59</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="P12">
         <v>88710</v>
@@ -4404,13 +4418,13 @@
         <v>143</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P13" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="Q13" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -4448,13 +4462,13 @@
         <v>85</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P14" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="Q14" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -4492,13 +4506,13 @@
         <v>48</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="P15" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="Q15" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -4536,13 +4550,13 @@
         <v>49</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P16" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="Q16" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,7 +4594,7 @@
         <v>53</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P17">
         <v>1935</v>
@@ -4624,7 +4638,7 @@
         <v>113</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="P18">
         <v>41</v>
@@ -7310,6 +7324,9 @@
       <c r="B92" t="s">
         <v>276</v>
       </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
       <c r="E92" t="s">
         <v>277</v>
       </c>
@@ -7329,10 +7346,10 @@
         <v>18</v>
       </c>
       <c r="L92">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="M92">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -7342,21 +7359,18 @@
       <c r="B93" t="s">
         <v>279</v>
       </c>
-      <c r="C93" t="s">
-        <v>72</v>
-      </c>
       <c r="E93" t="s">
+        <v>275</v>
+      </c>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" t="s">
+        <v>238</v>
+      </c>
+      <c r="H93" t="s">
         <v>280</v>
       </c>
-      <c r="F93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" t="s">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s">
-        <v>281</v>
-      </c>
       <c r="I93" t="s">
         <v>17</v>
       </c>
@@ -7364,10 +7378,10 @@
         <v>18</v>
       </c>
       <c r="L93">
-        <v>153</v>
+        <v>1371</v>
       </c>
       <c r="M93">
-        <v>36</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -7375,10 +7389,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
         <v>282</v>
-      </c>
-      <c r="E94" t="s">
-        <v>275</v>
       </c>
       <c r="F94" t="s">
         <v>237</v>
@@ -7396,10 +7413,10 @@
         <v>18</v>
       </c>
       <c r="L94">
-        <v>1371</v>
+        <v>606</v>
       </c>
       <c r="M94">
-        <v>295</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -7409,9 +7426,6 @@
       <c r="B95" t="s">
         <v>284</v>
       </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
       <c r="E95" t="s">
         <v>285</v>
       </c>
@@ -7431,10 +7445,10 @@
         <v>18</v>
       </c>
       <c r="L95">
-        <v>606</v>
+        <v>528</v>
       </c>
       <c r="M95">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -7442,10 +7456,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
         <v>287</v>
-      </c>
-      <c r="E96" t="s">
-        <v>288</v>
       </c>
       <c r="F96" t="s">
         <v>237</v>
@@ -7463,10 +7480,10 @@
         <v>18</v>
       </c>
       <c r="L96">
-        <v>528</v>
+        <v>719</v>
       </c>
       <c r="M96">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -7474,13 +7491,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F97" t="s">
         <v>237</v>
@@ -7489,7 +7506,7 @@
         <v>238</v>
       </c>
       <c r="H97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -7498,10 +7515,10 @@
         <v>18</v>
       </c>
       <c r="L97">
-        <v>719</v>
+        <v>665</v>
       </c>
       <c r="M97">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -7515,16 +7532,16 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F98" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="H98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -7533,10 +7550,10 @@
         <v>18</v>
       </c>
       <c r="L98">
-        <v>665</v>
+        <v>1132</v>
       </c>
       <c r="M98">
-        <v>138</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -7556,7 +7573,7 @@
         <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H99" t="s">
         <v>298</v>
@@ -7568,10 +7585,10 @@
         <v>18</v>
       </c>
       <c r="L99">
-        <v>1132</v>
+        <v>525</v>
       </c>
       <c r="M99">
-        <v>235</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -7591,7 +7608,7 @@
         <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H100" t="s">
         <v>301</v>
@@ -7603,10 +7620,10 @@
         <v>18</v>
       </c>
       <c r="L100">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="M100">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -7616,9 +7633,6 @@
       <c r="B101" t="s">
         <v>302</v>
       </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
       <c r="E101" t="s">
         <v>303</v>
       </c>
@@ -7626,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H101" t="s">
         <v>304</v>
@@ -7638,10 +7652,10 @@
         <v>18</v>
       </c>
       <c r="L101">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="M101">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -7651,6 +7665,9 @@
       <c r="B102" t="s">
         <v>305</v>
       </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
       <c r="E102" t="s">
         <v>306</v>
       </c>
@@ -7658,7 +7675,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H102" t="s">
         <v>307</v>
@@ -7670,10 +7687,10 @@
         <v>18</v>
       </c>
       <c r="L102">
-        <v>778</v>
+        <v>1417</v>
       </c>
       <c r="M102">
-        <v>166</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -7687,16 +7704,16 @@
         <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F103" t="s">
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I103" t="s">
         <v>17</v>
@@ -7705,10 +7722,10 @@
         <v>18</v>
       </c>
       <c r="L103">
-        <v>1417</v>
+        <v>1109</v>
       </c>
       <c r="M103">
-        <v>302</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -7716,19 +7733,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" t="s">
         <v>311</v>
-      </c>
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" t="s">
-        <v>309</v>
       </c>
       <c r="F104" t="s">
         <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H104" t="s">
         <v>312</v>
@@ -7740,10 +7754,10 @@
         <v>18</v>
       </c>
       <c r="L104">
-        <v>1109</v>
+        <v>1382</v>
       </c>
       <c r="M104">
-        <v>261</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -7753,6 +7767,9 @@
       <c r="B105" t="s">
         <v>313</v>
       </c>
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
       <c r="E105" t="s">
         <v>314</v>
       </c>
@@ -7760,7 +7777,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H105" t="s">
         <v>315</v>
@@ -7772,10 +7789,10 @@
         <v>18</v>
       </c>
       <c r="L105">
-        <v>1382</v>
+        <v>788</v>
       </c>
       <c r="M105">
-        <v>325</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -7785,9 +7802,6 @@
       <c r="B106" t="s">
         <v>316</v>
       </c>
-      <c r="C106" t="s">
-        <v>72</v>
-      </c>
       <c r="E106" t="s">
         <v>317</v>
       </c>
@@ -7795,7 +7809,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H106" t="s">
         <v>318</v>
@@ -7807,10 +7821,10 @@
         <v>18</v>
       </c>
       <c r="L106">
-        <v>788</v>
+        <v>683</v>
       </c>
       <c r="M106">
-        <v>202</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -7820,6 +7834,9 @@
       <c r="B107" t="s">
         <v>319</v>
       </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
       <c r="E107" t="s">
         <v>320</v>
       </c>
@@ -7827,7 +7844,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H107" t="s">
         <v>321</v>
@@ -7839,10 +7856,10 @@
         <v>18</v>
       </c>
       <c r="L107">
-        <v>683</v>
+        <v>558</v>
       </c>
       <c r="M107">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -7852,9 +7869,6 @@
       <c r="B108" t="s">
         <v>322</v>
       </c>
-      <c r="C108" t="s">
-        <v>12</v>
-      </c>
       <c r="E108" t="s">
         <v>323</v>
       </c>
@@ -7862,7 +7876,7 @@
         <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H108" t="s">
         <v>324</v>
@@ -7874,10 +7888,10 @@
         <v>18</v>
       </c>
       <c r="L108">
-        <v>558</v>
+        <v>1705</v>
       </c>
       <c r="M108">
-        <v>130</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -7887,6 +7901,9 @@
       <c r="B109" t="s">
         <v>325</v>
       </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
       <c r="E109" t="s">
         <v>326</v>
       </c>
@@ -7894,7 +7911,7 @@
         <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H109" t="s">
         <v>327</v>
@@ -7906,10 +7923,10 @@
         <v>18</v>
       </c>
       <c r="L109">
-        <v>1705</v>
+        <v>652</v>
       </c>
       <c r="M109">
-        <v>348</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -7919,9 +7936,6 @@
       <c r="B110" t="s">
         <v>328</v>
       </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
       <c r="E110" t="s">
         <v>329</v>
       </c>
@@ -7929,7 +7943,7 @@
         <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H110" t="s">
         <v>330</v>
@@ -7941,10 +7955,10 @@
         <v>18</v>
       </c>
       <c r="L110">
-        <v>652</v>
+        <v>884</v>
       </c>
       <c r="M110">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -7954,6 +7968,9 @@
       <c r="B111" t="s">
         <v>331</v>
       </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
       <c r="E111" t="s">
         <v>332</v>
       </c>
@@ -7961,7 +7978,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H111" t="s">
         <v>333</v>
@@ -7973,10 +7990,10 @@
         <v>18</v>
       </c>
       <c r="L111">
-        <v>884</v>
+        <v>725</v>
       </c>
       <c r="M111">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -7987,19 +8004,19 @@
         <v>334</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E112" t="s">
         <v>335</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="G112" t="s">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="H112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -8008,10 +8025,10 @@
         <v>18</v>
       </c>
       <c r="L112">
-        <v>725</v>
+        <v>86</v>
       </c>
       <c r="M112">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -8019,16 +8036,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C113" t="s">
         <v>72</v>
       </c>
       <c r="E113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F113" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G113" t="s">
         <v>79</v>
@@ -8043,10 +8060,10 @@
         <v>18</v>
       </c>
       <c r="L113">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M113">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -8057,13 +8074,13 @@
         <v>341</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
         <v>342</v>
       </c>
       <c r="F114" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G114" t="s">
         <v>79</v>
@@ -8078,10 +8095,10 @@
         <v>18</v>
       </c>
       <c r="L114">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="M114">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -8092,13 +8109,13 @@
         <v>344</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
         <v>345</v>
       </c>
       <c r="F115" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G115" t="s">
         <v>79</v>
@@ -8113,10 +8130,10 @@
         <v>18</v>
       </c>
       <c r="L115">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="M115">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -8133,7 +8150,7 @@
         <v>348</v>
       </c>
       <c r="F116" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G116" t="s">
         <v>79</v>
@@ -8148,10 +8165,10 @@
         <v>18</v>
       </c>
       <c r="L116">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M116">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -8168,7 +8185,7 @@
         <v>351</v>
       </c>
       <c r="F117" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G117" t="s">
         <v>79</v>
@@ -8183,10 +8200,10 @@
         <v>18</v>
       </c>
       <c r="L117">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="M117">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -8203,7 +8220,7 @@
         <v>354</v>
       </c>
       <c r="F118" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G118" t="s">
         <v>79</v>
@@ -8218,7 +8235,7 @@
         <v>18</v>
       </c>
       <c r="L118">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M118">
         <v>10</v>
@@ -8238,7 +8255,7 @@
         <v>357</v>
       </c>
       <c r="F119" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G119" t="s">
         <v>79</v>
@@ -8256,7 +8273,7 @@
         <v>84</v>
       </c>
       <c r="M119">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -8273,7 +8290,7 @@
         <v>360</v>
       </c>
       <c r="F120" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G120" t="s">
         <v>79</v>
@@ -8288,10 +8305,10 @@
         <v>18</v>
       </c>
       <c r="L120">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="M120">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -8302,19 +8319,19 @@
         <v>362</v>
       </c>
       <c r="C121" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
         <v>363</v>
       </c>
       <c r="F121" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G121" t="s">
         <v>79</v>
       </c>
       <c r="H121" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I121" t="s">
         <v>17</v>
@@ -8323,10 +8340,10 @@
         <v>18</v>
       </c>
       <c r="L121">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="M121">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -8334,22 +8351,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C122" t="s">
         <v>72</v>
       </c>
       <c r="E122" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F122" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G122" t="s">
         <v>79</v>
       </c>
       <c r="H122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -8358,7 +8375,7 @@
         <v>18</v>
       </c>
       <c r="L122">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M122">
         <v>19</v>
@@ -8369,22 +8386,22 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C123" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F123" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G123" t="s">
         <v>79</v>
       </c>
       <c r="H123" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I123" t="s">
         <v>17</v>
@@ -8393,10 +8410,10 @@
         <v>18</v>
       </c>
       <c r="L123">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="M123">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -8404,16 +8421,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F124" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G124" t="s">
         <v>79</v>
@@ -8428,10 +8445,10 @@
         <v>18</v>
       </c>
       <c r="L124">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="M124">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -8442,13 +8459,13 @@
         <v>375</v>
       </c>
       <c r="C125" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
         <v>376</v>
       </c>
       <c r="F125" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G125" t="s">
         <v>79</v>
@@ -8463,10 +8480,10 @@
         <v>18</v>
       </c>
       <c r="L125">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="M125">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -8483,7 +8500,7 @@
         <v>379</v>
       </c>
       <c r="F126" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G126" t="s">
         <v>79</v>
@@ -8498,10 +8515,10 @@
         <v>18</v>
       </c>
       <c r="L126">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="M126">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -8518,7 +8535,7 @@
         <v>382</v>
       </c>
       <c r="F127" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G127" t="s">
         <v>79</v>
@@ -8533,10 +8550,10 @@
         <v>18</v>
       </c>
       <c r="L127">
-        <v>172</v>
+        <v>580</v>
       </c>
       <c r="M127">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -8553,7 +8570,7 @@
         <v>385</v>
       </c>
       <c r="F128" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G128" t="s">
         <v>79</v>
@@ -8568,10 +8585,10 @@
         <v>18</v>
       </c>
       <c r="L128">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="M128">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -8585,16 +8602,16 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F129" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G129" t="s">
         <v>79</v>
       </c>
       <c r="H129" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -8603,10 +8620,10 @@
         <v>18</v>
       </c>
       <c r="L129">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="M129">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -8614,22 +8631,22 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F130" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G130" t="s">
         <v>79</v>
       </c>
       <c r="H130" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -8638,10 +8655,10 @@
         <v>18</v>
       </c>
       <c r="L130">
-        <v>580</v>
+        <v>324</v>
       </c>
       <c r="M130">
-        <v>137</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -8649,22 +8666,22 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E131" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F131" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G131" t="s">
         <v>79</v>
       </c>
       <c r="H131" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -8673,10 +8690,10 @@
         <v>18</v>
       </c>
       <c r="L131">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="M131">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -8684,22 +8701,22 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F132" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G132" t="s">
         <v>79</v>
       </c>
       <c r="H132" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -8708,10 +8725,10 @@
         <v>18</v>
       </c>
       <c r="L132">
-        <v>126</v>
+        <v>935</v>
       </c>
       <c r="M132">
-        <v>31</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -8728,7 +8745,7 @@
         <v>398</v>
       </c>
       <c r="F133" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G133" t="s">
         <v>79</v>
@@ -8743,10 +8760,10 @@
         <v>18</v>
       </c>
       <c r="L133">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="M133">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -8763,7 +8780,7 @@
         <v>401</v>
       </c>
       <c r="F134" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G134" t="s">
         <v>79</v>
@@ -8778,10 +8795,10 @@
         <v>18</v>
       </c>
       <c r="L134">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="M134">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -8795,16 +8812,16 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="F135" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G135" t="s">
         <v>79</v>
       </c>
       <c r="H135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -8813,10 +8830,10 @@
         <v>18</v>
       </c>
       <c r="L135">
-        <v>935</v>
+        <v>431</v>
       </c>
       <c r="M135">
-        <v>229</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -8824,22 +8841,22 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F136" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G136" t="s">
         <v>79</v>
       </c>
       <c r="H136" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -8848,10 +8865,10 @@
         <v>18</v>
       </c>
       <c r="L136">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M136">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -8859,22 +8876,22 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s">
         <v>72</v>
       </c>
       <c r="E137" t="s">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="F137" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="G137" t="s">
         <v>79</v>
       </c>
       <c r="H137" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I137" t="s">
         <v>17</v>
@@ -8883,10 +8900,10 @@
         <v>18</v>
       </c>
       <c r="L137">
-        <v>140</v>
+        <v>1357</v>
       </c>
       <c r="M137">
-        <v>28</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -8894,16 +8911,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="F138" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="G138" t="s">
         <v>79</v>
@@ -8918,10 +8935,10 @@
         <v>18</v>
       </c>
       <c r="L138">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="M138">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -8932,13 +8949,13 @@
         <v>414</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E139" t="s">
         <v>415</v>
       </c>
       <c r="F139" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="G139" t="s">
         <v>79</v>
@@ -8953,10 +8970,10 @@
         <v>18</v>
       </c>
       <c r="L139">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M139">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -8973,13 +8990,13 @@
         <v>78</v>
       </c>
       <c r="F140" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G140" t="s">
         <v>79</v>
       </c>
       <c r="H140" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -8988,10 +9005,10 @@
         <v>18</v>
       </c>
       <c r="L140">
-        <v>1357</v>
+        <v>146</v>
       </c>
       <c r="M140">
-        <v>326</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -8999,22 +9016,22 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="F141" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G141" t="s">
         <v>79</v>
       </c>
       <c r="H141" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -9023,10 +9040,10 @@
         <v>18</v>
       </c>
       <c r="L141">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="M141">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -9034,22 +9051,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C142" t="s">
         <v>72</v>
       </c>
       <c r="E142" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F142" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G142" t="s">
         <v>79</v>
       </c>
       <c r="H142" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -9058,10 +9075,10 @@
         <v>18</v>
       </c>
       <c r="L142">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="M142">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -9069,22 +9086,22 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="F143" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G143" t="s">
         <v>79</v>
       </c>
       <c r="H143" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -9093,10 +9110,10 @@
         <v>18</v>
       </c>
       <c r="L143">
-        <v>146</v>
+        <v>474</v>
       </c>
       <c r="M143">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -9104,22 +9121,22 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="F144" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G144" t="s">
         <v>79</v>
       </c>
       <c r="H144" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -9128,10 +9145,10 @@
         <v>18</v>
       </c>
       <c r="L144">
-        <v>221</v>
+        <v>590</v>
       </c>
       <c r="M144">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -9142,19 +9159,19 @@
         <v>428</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F145" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G145" t="s">
         <v>79</v>
       </c>
       <c r="H145" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -9163,10 +9180,10 @@
         <v>18</v>
       </c>
       <c r="L145">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="M145">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
@@ -9174,22 +9191,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" t="s">
+        <v>72</v>
+      </c>
+      <c r="E146" t="s">
         <v>431</v>
       </c>
-      <c r="C146" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" t="s">
-        <v>432</v>
-      </c>
       <c r="F146" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G146" t="s">
         <v>79</v>
       </c>
       <c r="H146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I146" t="s">
         <v>17</v>
@@ -9198,10 +9215,10 @@
         <v>18</v>
       </c>
       <c r="L146">
-        <v>474</v>
+        <v>1064</v>
       </c>
       <c r="M146">
-        <v>56</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -9209,22 +9226,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F147" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G147" t="s">
         <v>79</v>
       </c>
       <c r="H147" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I147" t="s">
         <v>17</v>
@@ -9233,10 +9250,10 @@
         <v>18</v>
       </c>
       <c r="L147">
-        <v>590</v>
+        <v>238</v>
       </c>
       <c r="M147">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -9244,16 +9261,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F148" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G148" t="s">
         <v>79</v>
@@ -9268,10 +9285,10 @@
         <v>18</v>
       </c>
       <c r="L148">
-        <v>542</v>
+        <v>688</v>
       </c>
       <c r="M148">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -9279,22 +9296,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>441</v>
+      </c>
+      <c r="F149" t="s">
         <v>439</v>
       </c>
-      <c r="C149" t="s">
-        <v>72</v>
-      </c>
-      <c r="E149" t="s">
-        <v>440</v>
-      </c>
-      <c r="F149" t="s">
-        <v>418</v>
-      </c>
       <c r="G149" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="H149" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -9303,10 +9323,10 @@
         <v>18</v>
       </c>
       <c r="L149">
-        <v>1064</v>
+        <v>107</v>
       </c>
       <c r="M149">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -9314,22 +9334,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="D150">
+        <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F150" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="G150" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="H150" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -9338,10 +9361,10 @@
         <v>18</v>
       </c>
       <c r="L150">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="M150">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
@@ -9349,34 +9372,37 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
       </c>
+      <c r="D151">
+        <v>25</v>
+      </c>
       <c r="E151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F151" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="G151" t="s">
+        <v>120</v>
+      </c>
+      <c r="H151" t="s">
+        <v>448</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="L151">
+        <v>367</v>
+      </c>
+      <c r="M151">
         <v>79</v>
-      </c>
-      <c r="H151" t="s">
-        <v>447</v>
-      </c>
-      <c r="I151" t="s">
-        <v>17</v>
-      </c>
-      <c r="J151" t="s">
-        <v>18</v>
-      </c>
-      <c r="L151">
-        <v>688</v>
-      </c>
-      <c r="M151">
-        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
@@ -9390,13 +9416,13 @@
         <v>12</v>
       </c>
       <c r="D152">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E152" t="s">
         <v>450</v>
       </c>
       <c r="F152" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G152" t="s">
         <v>120</v>
@@ -9411,10 +9437,10 @@
         <v>18</v>
       </c>
       <c r="L152">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="M152">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -9422,25 +9448,25 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C153" t="s">
         <v>72</v>
       </c>
       <c r="D153">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="F153" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G153" t="s">
         <v>120</v>
       </c>
       <c r="H153" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -9449,10 +9475,10 @@
         <v>18</v>
       </c>
       <c r="L153">
-        <v>193</v>
+        <v>560</v>
       </c>
       <c r="M153">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -9460,25 +9486,25 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
       </c>
       <c r="D154">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F154" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G154" t="s">
         <v>120</v>
       </c>
       <c r="H154" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -9487,10 +9513,10 @@
         <v>18</v>
       </c>
       <c r="L154">
-        <v>367</v>
+        <v>613</v>
       </c>
       <c r="M154">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -9498,25 +9524,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C155" t="s">
         <v>12</v>
       </c>
       <c r="D155">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>459</v>
+        <v>119</v>
       </c>
       <c r="F155" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G155" t="s">
         <v>120</v>
       </c>
       <c r="H155" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="I155" t="s">
         <v>17</v>
@@ -9525,10 +9551,10 @@
         <v>18</v>
       </c>
       <c r="L155">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="M155">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
@@ -9536,25 +9562,25 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>472</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>36</v>
+      </c>
+      <c r="E156" t="s">
         <v>471</v>
       </c>
-      <c r="C156" t="s">
-        <v>72</v>
-      </c>
-      <c r="D156">
-        <v>21</v>
-      </c>
-      <c r="E156" t="s">
-        <v>472</v>
-      </c>
       <c r="F156" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G156" t="s">
         <v>120</v>
       </c>
       <c r="H156" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -9563,10 +9589,10 @@
         <v>18</v>
       </c>
       <c r="L156">
-        <v>560</v>
+        <v>178</v>
       </c>
       <c r="M156">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -9574,26 +9600,26 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D157">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E157" t="s">
+        <v>474</v>
+      </c>
+      <c r="F157" t="s">
+        <v>439</v>
+      </c>
+      <c r="G157" t="s">
+        <v>120</v>
+      </c>
+      <c r="H157" t="s">
         <v>475</v>
       </c>
-      <c r="F157" t="s">
-        <v>448</v>
-      </c>
-      <c r="G157" t="s">
-        <v>120</v>
-      </c>
-      <c r="H157" t="s">
-        <v>474</v>
-      </c>
       <c r="I157" t="s">
         <v>17</v>
       </c>
@@ -9601,10 +9627,10 @@
         <v>18</v>
       </c>
       <c r="L157">
-        <v>613</v>
+        <v>463</v>
       </c>
       <c r="M157">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -9612,25 +9638,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>478</v>
+      </c>
+      <c r="C158" t="s">
+        <v>72</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="E158" t="s">
         <v>477</v>
       </c>
-      <c r="C158" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158">
-        <v>22</v>
-      </c>
-      <c r="E158" t="s">
-        <v>119</v>
-      </c>
       <c r="F158" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G158" t="s">
         <v>120</v>
       </c>
       <c r="H158" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I158" t="s">
         <v>17</v>
@@ -9639,10 +9665,10 @@
         <v>18</v>
       </c>
       <c r="L158">
-        <v>243</v>
+        <v>924</v>
       </c>
       <c r="M158">
-        <v>57</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
@@ -9650,25 +9676,25 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D159">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E159" t="s">
         <v>480</v>
       </c>
       <c r="F159" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G159" t="s">
         <v>120</v>
       </c>
       <c r="H159" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -9677,10 +9703,10 @@
         <v>18</v>
       </c>
       <c r="L159">
-        <v>178</v>
+        <v>550</v>
       </c>
       <c r="M159">
-        <v>36</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -9688,25 +9714,25 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D160">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E160" t="s">
         <v>483</v>
       </c>
       <c r="F160" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G160" t="s">
         <v>120</v>
       </c>
       <c r="H160" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I160" t="s">
         <v>17</v>
@@ -9715,10 +9741,10 @@
         <v>18</v>
       </c>
       <c r="L160">
-        <v>463</v>
+        <v>146</v>
       </c>
       <c r="M160">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -9726,25 +9752,25 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C161" t="s">
         <v>72</v>
       </c>
       <c r="D161">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F161" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G161" t="s">
         <v>120</v>
       </c>
       <c r="H161" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I161" t="s">
         <v>17</v>
@@ -9753,10 +9779,10 @@
         <v>18</v>
       </c>
       <c r="L161">
-        <v>924</v>
+        <v>739</v>
       </c>
       <c r="M161">
-        <v>230</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -9764,26 +9790,26 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D162">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E162" t="s">
+        <v>490</v>
+      </c>
+      <c r="F162" t="s">
+        <v>439</v>
+      </c>
+      <c r="G162" t="s">
+        <v>120</v>
+      </c>
+      <c r="H162" t="s">
         <v>489</v>
       </c>
-      <c r="F162" t="s">
-        <v>448</v>
-      </c>
-      <c r="G162" t="s">
-        <v>120</v>
-      </c>
-      <c r="H162" t="s">
-        <v>490</v>
-      </c>
       <c r="I162" t="s">
         <v>17</v>
       </c>
@@ -9791,10 +9817,10 @@
         <v>18</v>
       </c>
       <c r="L162">
-        <v>550</v>
+        <v>173</v>
       </c>
       <c r="M162">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -9802,26 +9828,26 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>492</v>
+      </c>
+      <c r="C163" t="s">
+        <v>72</v>
+      </c>
+      <c r="D163">
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>477</v>
+      </c>
+      <c r="F163" t="s">
+        <v>439</v>
+      </c>
+      <c r="G163" t="s">
+        <v>120</v>
+      </c>
+      <c r="H163" t="s">
         <v>493</v>
       </c>
-      <c r="C163" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163">
-        <v>45</v>
-      </c>
-      <c r="E163" t="s">
-        <v>492</v>
-      </c>
-      <c r="F163" t="s">
-        <v>448</v>
-      </c>
-      <c r="G163" t="s">
-        <v>120</v>
-      </c>
-      <c r="H163" t="s">
-        <v>491</v>
-      </c>
       <c r="I163" t="s">
         <v>17</v>
       </c>
@@ -9829,10 +9855,10 @@
         <v>18</v>
       </c>
       <c r="L163">
-        <v>146</v>
+        <v>408</v>
       </c>
       <c r="M163">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -9840,26 +9866,26 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>494</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
         <v>495</v>
       </c>
-      <c r="C164" t="s">
-        <v>72</v>
-      </c>
-      <c r="D164">
-        <v>53</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
+        <v>439</v>
+      </c>
+      <c r="G164" t="s">
+        <v>120</v>
+      </c>
+      <c r="H164" t="s">
         <v>496</v>
       </c>
-      <c r="F164" t="s">
-        <v>448</v>
-      </c>
-      <c r="G164" t="s">
-        <v>120</v>
-      </c>
-      <c r="H164" t="s">
-        <v>497</v>
-      </c>
       <c r="I164" t="s">
         <v>17</v>
       </c>
@@ -9867,10 +9893,10 @@
         <v>18</v>
       </c>
       <c r="L164">
-        <v>739</v>
+        <v>328</v>
       </c>
       <c r="M164">
-        <v>149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -9878,25 +9904,25 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>499</v>
+        <v>131</v>
       </c>
       <c r="F165" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G165" t="s">
         <v>120</v>
       </c>
       <c r="H165" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -9905,10 +9931,10 @@
         <v>18</v>
       </c>
       <c r="L165">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="M165">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -9916,25 +9942,25 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C166" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D166">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="F166" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G166" t="s">
         <v>120</v>
       </c>
       <c r="H166" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -9943,10 +9969,10 @@
         <v>18</v>
       </c>
       <c r="L166">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M166">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -9954,26 +9980,26 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>501</v>
+      </c>
+      <c r="C167" t="s">
+        <v>72</v>
+      </c>
+      <c r="D167">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>502</v>
+      </c>
+      <c r="F167" t="s">
+        <v>439</v>
+      </c>
+      <c r="G167" t="s">
+        <v>120</v>
+      </c>
+      <c r="H167" t="s">
         <v>503</v>
       </c>
-      <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167">
-        <v>18</v>
-      </c>
-      <c r="E167" t="s">
-        <v>504</v>
-      </c>
-      <c r="F167" t="s">
-        <v>448</v>
-      </c>
-      <c r="G167" t="s">
-        <v>120</v>
-      </c>
-      <c r="H167" t="s">
-        <v>505</v>
-      </c>
       <c r="I167" t="s">
         <v>17</v>
       </c>
@@ -9981,10 +10007,10 @@
         <v>18</v>
       </c>
       <c r="L167">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="M167">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -9992,25 +10018,25 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C168" t="s">
         <v>72</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E168" t="s">
         <v>131</v>
       </c>
       <c r="F168" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G168" t="s">
         <v>120</v>
       </c>
       <c r="H168" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I168" t="s">
         <v>17</v>
@@ -10019,10 +10045,10 @@
         <v>18</v>
       </c>
       <c r="L168">
-        <v>217</v>
+        <v>436</v>
       </c>
       <c r="M168">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -10030,26 +10056,26 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>506</v>
+      </c>
+      <c r="C169" t="s">
+        <v>72</v>
+      </c>
+      <c r="D169">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>507</v>
+      </c>
+      <c r="F169" t="s">
+        <v>439</v>
+      </c>
+      <c r="G169" t="s">
+        <v>120</v>
+      </c>
+      <c r="H169" t="s">
         <v>508</v>
       </c>
-      <c r="C169" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169">
-        <v>16</v>
-      </c>
-      <c r="E169" t="s">
-        <v>154</v>
-      </c>
-      <c r="F169" t="s">
-        <v>448</v>
-      </c>
-      <c r="G169" t="s">
-        <v>120</v>
-      </c>
-      <c r="H169" t="s">
-        <v>509</v>
-      </c>
       <c r="I169" t="s">
         <v>17</v>
       </c>
@@ -10057,10 +10083,10 @@
         <v>18</v>
       </c>
       <c r="L169">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="M169">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -10068,26 +10094,26 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>509</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>29</v>
+      </c>
+      <c r="E170" t="s">
         <v>510</v>
       </c>
-      <c r="C170" t="s">
-        <v>72</v>
-      </c>
-      <c r="D170">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
+        <v>439</v>
+      </c>
+      <c r="G170" t="s">
+        <v>120</v>
+      </c>
+      <c r="H170" t="s">
         <v>511</v>
       </c>
-      <c r="F170" t="s">
-        <v>448</v>
-      </c>
-      <c r="G170" t="s">
-        <v>120</v>
-      </c>
-      <c r="H170" t="s">
-        <v>512</v>
-      </c>
       <c r="I170" t="s">
         <v>17</v>
       </c>
@@ -10095,10 +10121,10 @@
         <v>18</v>
       </c>
       <c r="L170">
-        <v>420</v>
+        <v>288</v>
       </c>
       <c r="M170">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -10106,25 +10132,25 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>514</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>25</v>
+      </c>
+      <c r="E171" t="s">
         <v>513</v>
       </c>
-      <c r="C171" t="s">
-        <v>72</v>
-      </c>
-      <c r="D171">
-        <v>17</v>
-      </c>
-      <c r="E171" t="s">
-        <v>131</v>
-      </c>
       <c r="F171" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G171" t="s">
         <v>120</v>
       </c>
       <c r="H171" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -10133,10 +10159,10 @@
         <v>18</v>
       </c>
       <c r="L171">
-        <v>436</v>
+        <v>103</v>
       </c>
       <c r="M171">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -10150,13 +10176,13 @@
         <v>72</v>
       </c>
       <c r="D172">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E172" t="s">
         <v>516</v>
       </c>
       <c r="F172" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G172" t="s">
         <v>120</v>
@@ -10171,10 +10197,10 @@
         <v>18</v>
       </c>
       <c r="L172">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="M172">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -10185,16 +10211,16 @@
         <v>518</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D173">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E173" t="s">
         <v>519</v>
       </c>
       <c r="F173" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G173" t="s">
         <v>120</v>
@@ -10209,10 +10235,10 @@
         <v>18</v>
       </c>
       <c r="L173">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M173">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -10223,16 +10249,16 @@
         <v>523</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D174">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E174" t="s">
         <v>522</v>
       </c>
       <c r="F174" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G174" t="s">
         <v>120</v>
@@ -10247,10 +10273,10 @@
         <v>18</v>
       </c>
       <c r="L174">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="M174">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -10270,7 +10296,7 @@
         <v>525</v>
       </c>
       <c r="F175" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G175" t="s">
         <v>120</v>
@@ -10285,10 +10311,10 @@
         <v>18</v>
       </c>
       <c r="L175">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="M175">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -10296,25 +10322,25 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="C176" t="s">
         <v>72</v>
       </c>
       <c r="D176">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E176" t="s">
         <v>528</v>
       </c>
       <c r="F176" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G176" t="s">
         <v>120</v>
       </c>
       <c r="H176" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I176" t="s">
         <v>17</v>
@@ -10323,10 +10349,10 @@
         <v>18</v>
       </c>
       <c r="L176">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="M176">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
@@ -10334,26 +10360,26 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C177" t="s">
         <v>72</v>
       </c>
       <c r="D177">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E177" t="s">
+        <v>530</v>
+      </c>
+      <c r="F177" t="s">
+        <v>439</v>
+      </c>
+      <c r="G177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H177" t="s">
         <v>531</v>
       </c>
-      <c r="F177" t="s">
-        <v>448</v>
-      </c>
-      <c r="G177" t="s">
-        <v>120</v>
-      </c>
-      <c r="H177" t="s">
-        <v>530</v>
-      </c>
       <c r="I177" t="s">
         <v>17</v>
       </c>
@@ -10361,10 +10387,10 @@
         <v>18</v>
       </c>
       <c r="L177">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -10372,25 +10398,25 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>534</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>37</v>
+      </c>
+      <c r="E178" t="s">
         <v>533</v>
       </c>
-      <c r="C178" t="s">
-        <v>72</v>
-      </c>
-      <c r="D178">
-        <v>29</v>
-      </c>
-      <c r="E178" t="s">
-        <v>534</v>
-      </c>
       <c r="F178" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G178" t="s">
         <v>120</v>
       </c>
       <c r="H178" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I178" t="s">
         <v>17</v>
@@ -10399,10 +10425,10 @@
         <v>18</v>
       </c>
       <c r="L178">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="M178">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -10410,19 +10436,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="C179" t="s">
         <v>72</v>
       </c>
       <c r="D179">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="F179" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G179" t="s">
         <v>120</v>
@@ -10437,10 +10463,10 @@
         <v>18</v>
       </c>
       <c r="L179">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="M179">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
@@ -10448,25 +10474,25 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C180" t="s">
         <v>72</v>
       </c>
       <c r="D180">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E180" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F180" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G180" t="s">
         <v>120</v>
       </c>
       <c r="H180" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I180" t="s">
         <v>17</v>
@@ -10475,10 +10501,10 @@
         <v>18</v>
       </c>
       <c r="L180">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="M180">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -10486,26 +10512,26 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
       </c>
       <c r="D181">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E181" t="s">
+        <v>541</v>
+      </c>
+      <c r="F181" t="s">
+        <v>439</v>
+      </c>
+      <c r="G181" t="s">
+        <v>120</v>
+      </c>
+      <c r="H181" t="s">
         <v>542</v>
       </c>
-      <c r="F181" t="s">
-        <v>448</v>
-      </c>
-      <c r="G181" t="s">
-        <v>120</v>
-      </c>
-      <c r="H181" t="s">
-        <v>541</v>
-      </c>
       <c r="I181" t="s">
         <v>17</v>
       </c>
@@ -10513,10 +10539,10 @@
         <v>18</v>
       </c>
       <c r="L181">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="M181">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -10530,19 +10556,19 @@
         <v>72</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E182" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="F182" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G182" t="s">
         <v>120</v>
       </c>
       <c r="H182" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I182" t="s">
         <v>17</v>
@@ -10551,10 +10577,10 @@
         <v>18</v>
       </c>
       <c r="L182">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="M182">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -10562,25 +10588,25 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C183" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D183">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>547</v>
+        <v>216</v>
       </c>
       <c r="F183" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G183" t="s">
         <v>120</v>
       </c>
       <c r="H183" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I183" t="s">
         <v>17</v>
@@ -10589,10 +10615,10 @@
         <v>18</v>
       </c>
       <c r="L183">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="M183">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -10600,25 +10626,25 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
       <c r="D184">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>550</v>
+        <v>203</v>
       </c>
       <c r="F184" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G184" t="s">
         <v>120</v>
       </c>
       <c r="H184" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I184" t="s">
         <v>17</v>
@@ -10627,10 +10653,10 @@
         <v>18</v>
       </c>
       <c r="L184">
-        <v>90</v>
+        <v>387</v>
       </c>
       <c r="M184">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -10638,25 +10664,25 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C185" t="s">
         <v>72</v>
       </c>
       <c r="D185">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E185" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F185" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G185" t="s">
         <v>120</v>
       </c>
       <c r="H185" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I185" t="s">
         <v>17</v>
@@ -10665,10 +10691,10 @@
         <v>18</v>
       </c>
       <c r="L185">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M185">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -10676,25 +10702,25 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
       </c>
       <c r="D186">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E186" t="s">
-        <v>216</v>
+        <v>553</v>
       </c>
       <c r="F186" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G186" t="s">
         <v>120</v>
       </c>
       <c r="H186" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I186" t="s">
         <v>17</v>
@@ -10703,10 +10729,10 @@
         <v>18</v>
       </c>
       <c r="L186">
-        <v>346</v>
+        <v>56</v>
       </c>
       <c r="M186">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -10714,25 +10740,25 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="F187" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G187" t="s">
         <v>120</v>
       </c>
       <c r="H187" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I187" t="s">
         <v>17</v>
@@ -10741,10 +10767,10 @@
         <v>18</v>
       </c>
       <c r="L187">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="M187">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -10752,25 +10778,25 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C188" t="s">
         <v>72</v>
       </c>
       <c r="D188">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>559</v>
+        <v>224</v>
       </c>
       <c r="F188" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G188" t="s">
         <v>120</v>
       </c>
       <c r="H188" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -10779,10 +10805,10 @@
         <v>18</v>
       </c>
       <c r="L188">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="M188">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -10790,26 +10816,26 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>559</v>
+      </c>
+      <c r="C189" t="s">
+        <v>72</v>
+      </c>
+      <c r="D189">
+        <v>17</v>
+      </c>
+      <c r="E189" t="s">
+        <v>560</v>
+      </c>
+      <c r="F189" t="s">
+        <v>439</v>
+      </c>
+      <c r="G189" t="s">
+        <v>120</v>
+      </c>
+      <c r="H189" t="s">
         <v>561</v>
       </c>
-      <c r="C189" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189">
-        <v>32</v>
-      </c>
-      <c r="E189" t="s">
-        <v>562</v>
-      </c>
-      <c r="F189" t="s">
-        <v>448</v>
-      </c>
-      <c r="G189" t="s">
-        <v>120</v>
-      </c>
-      <c r="H189" t="s">
-        <v>565</v>
-      </c>
       <c r="I189" t="s">
         <v>17</v>
       </c>
@@ -10817,10 +10843,10 @@
         <v>18</v>
       </c>
       <c r="L189">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="M189">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -10828,19 +10854,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C190" t="s">
         <v>72</v>
       </c>
       <c r="D190">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E190" t="s">
-        <v>131</v>
+        <v>563</v>
       </c>
       <c r="F190" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G190" t="s">
         <v>120</v>
@@ -10855,10 +10881,10 @@
         <v>18</v>
       </c>
       <c r="L190">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="M190">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -10866,19 +10892,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C191" t="s">
         <v>72</v>
       </c>
       <c r="D191">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E191" t="s">
-        <v>224</v>
+        <v>566</v>
       </c>
       <c r="F191" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G191" t="s">
         <v>120</v>
@@ -10893,10 +10919,10 @@
         <v>18</v>
       </c>
       <c r="L191">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="M191">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -10904,25 +10930,25 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C192" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D192">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E192" t="s">
         <v>569</v>
       </c>
       <c r="F192" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G192" t="s">
         <v>120</v>
       </c>
       <c r="H192" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I192" t="s">
         <v>17</v>
@@ -10931,10 +10957,10 @@
         <v>18</v>
       </c>
       <c r="L192">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M192">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -10948,20 +10974,20 @@
         <v>72</v>
       </c>
       <c r="D193">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E193" t="s">
+        <v>541</v>
+      </c>
+      <c r="F193" t="s">
+        <v>439</v>
+      </c>
+      <c r="G193" t="s">
+        <v>120</v>
+      </c>
+      <c r="H193" t="s">
         <v>572</v>
       </c>
-      <c r="F193" t="s">
-        <v>448</v>
-      </c>
-      <c r="G193" t="s">
-        <v>120</v>
-      </c>
-      <c r="H193" t="s">
-        <v>573</v>
-      </c>
       <c r="I193" t="s">
         <v>17</v>
       </c>
@@ -10969,10 +10995,10 @@
         <v>18</v>
       </c>
       <c r="L193">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="M193">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -10980,26 +11006,26 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>573</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
         <v>574</v>
       </c>
-      <c r="C194" t="s">
-        <v>72</v>
-      </c>
-      <c r="D194">
-        <v>42</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
+        <v>439</v>
+      </c>
+      <c r="G194" t="s">
+        <v>120</v>
+      </c>
+      <c r="H194" t="s">
         <v>575</v>
       </c>
-      <c r="F194" t="s">
-        <v>448</v>
-      </c>
-      <c r="G194" t="s">
-        <v>120</v>
-      </c>
-      <c r="H194" t="s">
-        <v>576</v>
-      </c>
       <c r="I194" t="s">
         <v>17</v>
       </c>
@@ -11007,10 +11033,10 @@
         <v>18</v>
       </c>
       <c r="L194">
-        <v>49</v>
+        <v>331</v>
       </c>
       <c r="M194">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -11018,25 +11044,25 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D195">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>578</v>
+        <v>131</v>
       </c>
       <c r="F195" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G195" t="s">
         <v>120</v>
       </c>
       <c r="H195" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I195" t="s">
         <v>17</v>
@@ -11045,10 +11071,10 @@
         <v>18</v>
       </c>
       <c r="L195">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="M195">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
@@ -11056,25 +11082,25 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C196" t="s">
         <v>72</v>
       </c>
       <c r="D196">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E196" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="F196" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G196" t="s">
         <v>120</v>
       </c>
       <c r="H196" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I196" t="s">
         <v>17</v>
@@ -11083,10 +11109,10 @@
         <v>18</v>
       </c>
       <c r="L196">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="M196">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
@@ -11094,7 +11120,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
@@ -11103,16 +11129,16 @@
         <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F197" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G197" t="s">
         <v>120</v>
       </c>
       <c r="H197" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I197" t="s">
         <v>17</v>
@@ -11121,10 +11147,10 @@
         <v>18</v>
       </c>
       <c r="L197">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="M197">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -11132,25 +11158,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C198" t="s">
         <v>72</v>
       </c>
       <c r="D198">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E198" t="s">
-        <v>131</v>
+        <v>585</v>
       </c>
       <c r="F198" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G198" t="s">
         <v>120</v>
       </c>
       <c r="H198" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I198" t="s">
         <v>17</v>
@@ -11159,10 +11185,10 @@
         <v>18</v>
       </c>
       <c r="L198">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="M198">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -11170,25 +11196,25 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C199" t="s">
         <v>72</v>
       </c>
       <c r="D199">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E199" t="s">
-        <v>588</v>
+        <v>485</v>
       </c>
       <c r="F199" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G199" t="s">
         <v>120</v>
       </c>
       <c r="H199" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I199" t="s">
         <v>17</v>
@@ -11197,10 +11223,10 @@
         <v>18</v>
       </c>
       <c r="L199">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="M199">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -11208,19 +11234,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C200" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D200">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E200" t="s">
-        <v>591</v>
+        <v>131</v>
       </c>
       <c r="F200" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G200" t="s">
         <v>120</v>
@@ -11235,10 +11261,10 @@
         <v>18</v>
       </c>
       <c r="L200">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="M200">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -11249,22 +11275,22 @@
         <v>593</v>
       </c>
       <c r="C201" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E201" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F201" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G201" t="s">
         <v>120</v>
       </c>
       <c r="H201" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I201" t="s">
         <v>17</v>
@@ -11273,10 +11299,10 @@
         <v>18</v>
       </c>
       <c r="L201">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="M201">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -11284,19 +11310,19 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C202" t="s">
         <v>72</v>
       </c>
       <c r="D202">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="F202" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G202" t="s">
         <v>120</v>
@@ -11311,10 +11337,10 @@
         <v>18</v>
       </c>
       <c r="L202">
-        <v>102</v>
+        <v>326</v>
       </c>
       <c r="M202">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -11322,25 +11348,25 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>599</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>17</v>
+      </c>
+      <c r="E203" t="s">
         <v>598</v>
       </c>
-      <c r="C203" t="s">
-        <v>72</v>
-      </c>
-      <c r="D203">
-        <v>34</v>
-      </c>
-      <c r="E203" t="s">
-        <v>131</v>
-      </c>
       <c r="F203" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G203" t="s">
         <v>120</v>
       </c>
       <c r="H203" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I203" t="s">
         <v>17</v>
@@ -11349,10 +11375,10 @@
         <v>18</v>
       </c>
       <c r="L203">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="M203">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -11360,25 +11386,25 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D204">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E204" t="s">
         <v>601</v>
       </c>
       <c r="F204" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G204" t="s">
         <v>120</v>
       </c>
       <c r="H204" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I204" t="s">
         <v>17</v>
@@ -11387,10 +11413,10 @@
         <v>18</v>
       </c>
       <c r="L204">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="M204">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -11398,22 +11424,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>603</v>
-      </c>
-      <c r="C205" t="s">
-        <v>72</v>
-      </c>
-      <c r="D205">
-        <v>17</v>
+        <v>604</v>
       </c>
       <c r="E205" t="s">
-        <v>604</v>
+        <v>275</v>
       </c>
       <c r="F205" t="s">
-        <v>448</v>
+        <v>237</v>
       </c>
       <c r="G205" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="H205" t="s">
         <v>605</v>
@@ -11425,10 +11445,10 @@
         <v>18</v>
       </c>
       <c r="L205">
-        <v>326</v>
+        <v>1935</v>
       </c>
       <c r="M205">
-        <v>72</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -11436,25 +11456,22 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
       </c>
-      <c r="D206">
-        <v>17</v>
-      </c>
       <c r="E206" t="s">
         <v>607</v>
       </c>
       <c r="F206" t="s">
-        <v>448</v>
+        <v>237</v>
       </c>
       <c r="G206" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="H206" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="I206" t="s">
         <v>17</v>
@@ -11463,10 +11480,10 @@
         <v>18</v>
       </c>
       <c r="L206">
-        <v>77</v>
+        <v>1654</v>
       </c>
       <c r="M206">
-        <v>18</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -11477,16 +11494,16 @@
         <v>609</v>
       </c>
       <c r="C207" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E207" t="s">
         <v>610</v>
       </c>
       <c r="F207" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G207" t="s">
         <v>120</v>
@@ -11501,10 +11518,10 @@
         <v>18</v>
       </c>
       <c r="L207">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M207">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -11512,16 +11529,22 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>612</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>21</v>
+      </c>
+      <c r="E208" t="s">
         <v>613</v>
       </c>
-      <c r="E208" t="s">
-        <v>275</v>
-      </c>
       <c r="F208" t="s">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="G208" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="H208" t="s">
         <v>614</v>
@@ -11533,10 +11556,10 @@
         <v>18</v>
       </c>
       <c r="L208">
-        <v>1935</v>
+        <v>241</v>
       </c>
       <c r="M208">
-        <v>378</v>
+        <v>54</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -11549,14 +11572,17 @@
       <c r="C209" t="s">
         <v>12</v>
       </c>
+      <c r="D209">
+        <v>25</v>
+      </c>
       <c r="E209" t="s">
         <v>616</v>
       </c>
       <c r="F209" t="s">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="G209" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="H209" t="s">
         <v>617</v>
@@ -11568,10 +11594,10 @@
         <v>18</v>
       </c>
       <c r="L209">
-        <v>1654</v>
+        <v>303</v>
       </c>
       <c r="M209">
-        <v>391</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -11579,25 +11605,25 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D210">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E210" t="s">
         <v>619</v>
       </c>
       <c r="F210" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G210" t="s">
         <v>120</v>
       </c>
       <c r="H210" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I210" t="s">
         <v>17</v>
@@ -11606,10 +11632,10 @@
         <v>18</v>
       </c>
       <c r="L210">
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="M210">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -11620,22 +11646,22 @@
         <v>621</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D211">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E211" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F211" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G211" t="s">
         <v>120</v>
       </c>
       <c r="H211" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I211" t="s">
         <v>17</v>
@@ -11644,10 +11670,10 @@
         <v>18</v>
       </c>
       <c r="L211">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="M211">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -11655,25 +11681,25 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C212" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D212">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E212" t="s">
-        <v>625</v>
+        <v>169</v>
       </c>
       <c r="F212" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G212" t="s">
         <v>120</v>
       </c>
       <c r="H212" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I212" t="s">
         <v>17</v>
@@ -11682,10 +11708,10 @@
         <v>18</v>
       </c>
       <c r="L212">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="M212">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -11693,25 +11719,25 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C213" t="s">
         <v>72</v>
       </c>
       <c r="D213">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E213" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F213" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G213" t="s">
         <v>120</v>
       </c>
       <c r="H213" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I213" t="s">
         <v>17</v>
@@ -11720,7 +11746,7 @@
         <v>18</v>
       </c>
       <c r="L213">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M213">
         <v>88</v>
@@ -11731,19 +11757,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C214" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D214">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E214" t="s">
         <v>628</v>
       </c>
       <c r="F214" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G214" t="s">
         <v>120</v>
@@ -11758,10 +11784,10 @@
         <v>18</v>
       </c>
       <c r="L214">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="M214">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -11769,19 +11795,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>26</v>
+      </c>
+      <c r="E215" t="s">
         <v>631</v>
       </c>
-      <c r="C215" t="s">
-        <v>72</v>
-      </c>
-      <c r="D215">
-        <v>20</v>
-      </c>
-      <c r="E215" t="s">
-        <v>169</v>
-      </c>
       <c r="F215" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G215" t="s">
         <v>120</v>
@@ -11796,10 +11822,10 @@
         <v>18</v>
       </c>
       <c r="L215">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="M215">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -11810,16 +11836,16 @@
         <v>633</v>
       </c>
       <c r="C216" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D216">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E216" t="s">
         <v>634</v>
       </c>
       <c r="F216" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G216" t="s">
         <v>120</v>
@@ -11834,10 +11860,10 @@
         <v>18</v>
       </c>
       <c r="L216">
-        <v>384</v>
+        <v>151</v>
       </c>
       <c r="M216">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -11845,25 +11871,25 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D217">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E217" t="s">
         <v>637</v>
       </c>
       <c r="F217" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G217" t="s">
         <v>120</v>
       </c>
       <c r="H217" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="I217" t="s">
         <v>17</v>
@@ -11872,10 +11898,10 @@
         <v>18</v>
       </c>
       <c r="L217">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M217">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11886,16 +11912,16 @@
         <v>639</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D218">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
         <v>640</v>
       </c>
       <c r="F218" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G218" t="s">
         <v>120</v>
@@ -11910,10 +11936,10 @@
         <v>18</v>
       </c>
       <c r="L218">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="M218">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -11927,13 +11953,13 @@
         <v>12</v>
       </c>
       <c r="D219">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E219" t="s">
         <v>643</v>
       </c>
       <c r="F219" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G219" t="s">
         <v>120</v>
@@ -11948,10 +11974,10 @@
         <v>18</v>
       </c>
       <c r="L219">
-        <v>151</v>
+        <v>293</v>
       </c>
       <c r="M219">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -11962,16 +11988,16 @@
         <v>645</v>
       </c>
       <c r="C220" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D220">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E220" t="s">
         <v>646</v>
       </c>
       <c r="F220" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G220" t="s">
         <v>120</v>
@@ -11986,10 +12012,10 @@
         <v>18</v>
       </c>
       <c r="L220">
-        <v>128</v>
+        <v>356</v>
       </c>
       <c r="M220">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -12003,13 +12029,13 @@
         <v>72</v>
       </c>
       <c r="D221">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E221" t="s">
         <v>649</v>
       </c>
       <c r="F221" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G221" t="s">
         <v>120</v>
@@ -12024,10 +12050,10 @@
         <v>18</v>
       </c>
       <c r="L221">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="M221">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -12041,13 +12067,13 @@
         <v>12</v>
       </c>
       <c r="D222">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E222" t="s">
         <v>652</v>
       </c>
       <c r="F222" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G222" t="s">
         <v>120</v>
@@ -12062,10 +12088,10 @@
         <v>18</v>
       </c>
       <c r="L222">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="M222">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
@@ -12076,16 +12102,16 @@
         <v>654</v>
       </c>
       <c r="C223" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D223">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E223" t="s">
         <v>655</v>
       </c>
       <c r="F223" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G223" t="s">
         <v>120</v>
@@ -12100,10 +12126,10 @@
         <v>18</v>
       </c>
       <c r="L223">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="M223">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -12114,16 +12140,16 @@
         <v>657</v>
       </c>
       <c r="C224" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D224">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E224" t="s">
         <v>658</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G224" t="s">
         <v>120</v>
@@ -12138,10 +12164,10 @@
         <v>18</v>
       </c>
       <c r="L224">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="M224">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -12155,13 +12181,13 @@
         <v>12</v>
       </c>
       <c r="D225">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E225" t="s">
         <v>661</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G225" t="s">
         <v>120</v>
@@ -12176,10 +12202,10 @@
         <v>18</v>
       </c>
       <c r="L225">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="M225">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -12190,16 +12216,16 @@
         <v>663</v>
       </c>
       <c r="C226" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D226">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E226" t="s">
         <v>664</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G226" t="s">
         <v>120</v>
@@ -12214,10 +12240,10 @@
         <v>18</v>
       </c>
       <c r="L226">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="M226">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -12231,13 +12257,13 @@
         <v>12</v>
       </c>
       <c r="D227">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E227" t="s">
         <v>667</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G227" t="s">
         <v>120</v>
@@ -12252,10 +12278,10 @@
         <v>18</v>
       </c>
       <c r="L227">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="M227">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -12269,20 +12295,20 @@
         <v>12</v>
       </c>
       <c r="D228">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E228" t="s">
+        <v>119</v>
+      </c>
+      <c r="F228" t="s">
+        <v>439</v>
+      </c>
+      <c r="G228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H228" t="s">
         <v>670</v>
       </c>
-      <c r="F228" t="s">
-        <v>448</v>
-      </c>
-      <c r="G228" t="s">
-        <v>120</v>
-      </c>
-      <c r="H228" t="s">
-        <v>671</v>
-      </c>
       <c r="I228" t="s">
         <v>17</v>
       </c>
@@ -12290,10 +12316,10 @@
         <v>18</v>
       </c>
       <c r="L228">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="M228">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -12301,25 +12327,25 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C229" t="s">
         <v>12</v>
       </c>
       <c r="D229">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E229" t="s">
-        <v>673</v>
+        <v>119</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G229" t="s">
         <v>120</v>
       </c>
       <c r="H229" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I229" t="s">
         <v>17</v>
@@ -12328,10 +12354,10 @@
         <v>18</v>
       </c>
       <c r="L229">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="M229">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -12339,25 +12365,25 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
       </c>
       <c r="D230">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E230" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G230" t="s">
         <v>120</v>
       </c>
       <c r="H230" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I230" t="s">
         <v>17</v>
@@ -12366,10 +12392,10 @@
         <v>18</v>
       </c>
       <c r="L230">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="M230">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -12377,25 +12403,25 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
       </c>
       <c r="D231">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E231" t="s">
-        <v>119</v>
+        <v>677</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G231" t="s">
         <v>120</v>
       </c>
       <c r="H231" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I231" t="s">
         <v>17</v>
@@ -12404,10 +12430,10 @@
         <v>18</v>
       </c>
       <c r="L231">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="M231">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -12415,19 +12441,19 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
       </c>
       <c r="D232">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>119</v>
+        <v>680</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G232" t="s">
         <v>120</v>
@@ -12442,10 +12468,10 @@
         <v>18</v>
       </c>
       <c r="L232">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="M232">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
@@ -12456,16 +12482,16 @@
         <v>682</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D233">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E233" t="s">
         <v>683</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G233" t="s">
         <v>120</v>
@@ -12480,10 +12506,10 @@
         <v>18</v>
       </c>
       <c r="L233">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="M233">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -12497,13 +12523,13 @@
         <v>12</v>
       </c>
       <c r="D234">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E234" t="s">
         <v>686</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G234" t="s">
         <v>120</v>
@@ -12518,10 +12544,10 @@
         <v>18</v>
       </c>
       <c r="L234">
-        <v>99</v>
+        <v>462</v>
       </c>
       <c r="M234">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -12535,13 +12561,13 @@
         <v>12</v>
       </c>
       <c r="D235">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E235" t="s">
         <v>689</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G235" t="s">
         <v>120</v>
@@ -12556,10 +12582,10 @@
         <v>18</v>
       </c>
       <c r="L235">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="M235">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -12570,7 +12596,7 @@
         <v>691</v>
       </c>
       <c r="C236" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D236">
         <v>19</v>
@@ -12579,7 +12605,7 @@
         <v>692</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G236" t="s">
         <v>120</v>
@@ -12594,10 +12620,10 @@
         <v>18</v>
       </c>
       <c r="L236">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="M236">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -12605,25 +12631,22 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
-      <c r="D237">
-        <v>19</v>
-      </c>
       <c r="E237" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>726</v>
       </c>
       <c r="G237" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="H237" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="I237" t="s">
         <v>17</v>
@@ -12632,10 +12655,10 @@
         <v>18</v>
       </c>
       <c r="L237">
-        <v>462</v>
+        <v>832</v>
       </c>
       <c r="M237">
-        <v>106</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
@@ -12643,25 +12666,25 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C238" t="s">
         <v>12</v>
       </c>
       <c r="D238">
-        <v>27</v>
-      </c>
-      <c r="E238" t="s">
-        <v>698</v>
+        <v>25</v>
+      </c>
+      <c r="E238">
+        <v>25</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G238" t="s">
         <v>120</v>
       </c>
       <c r="H238" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="I238" t="s">
         <v>17</v>
@@ -12670,10 +12693,10 @@
         <v>18</v>
       </c>
       <c r="L238">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="M238">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -12681,25 +12704,25 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D239">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G239" t="s">
         <v>120</v>
       </c>
       <c r="H239" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I239" t="s">
         <v>17</v>
@@ -12708,10 +12731,10 @@
         <v>18</v>
       </c>
       <c r="L239">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="M239">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -12719,22 +12742,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
       </c>
+      <c r="D240">
+        <v>17</v>
+      </c>
       <c r="E240" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="F240" t="s">
-        <v>735</v>
+        <v>439</v>
       </c>
       <c r="G240" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="H240" t="s">
-        <v>736</v>
+        <v>701</v>
       </c>
       <c r="I240" t="s">
         <v>17</v>
@@ -12743,10 +12769,10 @@
         <v>18</v>
       </c>
       <c r="L240">
-        <v>832</v>
+        <v>126</v>
       </c>
       <c r="M240">
-        <v>186</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -12754,25 +12780,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C241" t="s">
         <v>12</v>
       </c>
       <c r="D241">
-        <v>25</v>
-      </c>
-      <c r="E241">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="E241" t="s">
+        <v>510</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G241" t="s">
         <v>120</v>
       </c>
       <c r="H241" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I241" t="s">
         <v>17</v>
@@ -12781,10 +12807,10 @@
         <v>18</v>
       </c>
       <c r="L241">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="M241">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -12792,26 +12818,26 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>704</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242">
+        <v>44</v>
+      </c>
+      <c r="E242" t="s">
         <v>705</v>
       </c>
-      <c r="C242" t="s">
-        <v>72</v>
-      </c>
-      <c r="D242">
-        <v>27</v>
-      </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
+        <v>439</v>
+      </c>
+      <c r="G242" t="s">
+        <v>120</v>
+      </c>
+      <c r="H242" t="s">
         <v>706</v>
       </c>
-      <c r="F242" t="s">
-        <v>448</v>
-      </c>
-      <c r="G242" t="s">
-        <v>120</v>
-      </c>
-      <c r="H242" t="s">
-        <v>707</v>
-      </c>
       <c r="I242" t="s">
         <v>17</v>
       </c>
@@ -12819,10 +12845,10 @@
         <v>18</v>
       </c>
       <c r="L242">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="M242">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
@@ -12830,26 +12856,23 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>707</v>
+      </c>
+      <c r="C243" t="s">
+        <v>72</v>
+      </c>
+      <c r="D243">
+        <v>25</v>
+      </c>
+      <c r="E243" t="s">
         <v>708</v>
       </c>
-      <c r="C243" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243">
-        <v>17</v>
-      </c>
-      <c r="E243" t="s">
-        <v>709</v>
-      </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G243" t="s">
         <v>120</v>
       </c>
-      <c r="H243" t="s">
-        <v>710</v>
-      </c>
       <c r="I243" t="s">
         <v>17</v>
       </c>
@@ -12857,10 +12880,10 @@
         <v>18</v>
       </c>
       <c r="L243">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="M243">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -12868,25 +12891,22 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C244" t="s">
         <v>12</v>
       </c>
-      <c r="D244">
-        <v>36</v>
-      </c>
       <c r="E244" t="s">
-        <v>519</v>
+        <v>710</v>
       </c>
       <c r="F244" t="s">
-        <v>448</v>
+        <v>711</v>
       </c>
       <c r="G244" t="s">
-        <v>120</v>
+        <v>712</v>
       </c>
       <c r="H244" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I244" t="s">
         <v>17</v>
@@ -12895,10 +12915,10 @@
         <v>18</v>
       </c>
       <c r="L244">
-        <v>178</v>
+        <v>922</v>
       </c>
       <c r="M244">
-        <v>41</v>
+        <v>184</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -12906,26 +12926,23 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>714</v>
+      </c>
+      <c r="C245" t="s">
+        <v>72</v>
+      </c>
+      <c r="E245" t="s">
+        <v>715</v>
+      </c>
+      <c r="F245" t="s">
+        <v>711</v>
+      </c>
+      <c r="G245" t="s">
+        <v>712</v>
+      </c>
+      <c r="H245" t="s">
         <v>713</v>
       </c>
-      <c r="C245" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245">
-        <v>44</v>
-      </c>
-      <c r="E245" t="s">
-        <v>714</v>
-      </c>
-      <c r="F245" t="s">
-        <v>448</v>
-      </c>
-      <c r="G245" t="s">
-        <v>120</v>
-      </c>
-      <c r="H245" t="s">
-        <v>715</v>
-      </c>
       <c r="I245" t="s">
         <v>17</v>
       </c>
@@ -12933,10 +12950,10 @@
         <v>18</v>
       </c>
       <c r="L245">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="M245">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -12949,17 +12966,17 @@
       <c r="C246" t="s">
         <v>72</v>
       </c>
-      <c r="D246">
-        <v>25</v>
-      </c>
       <c r="E246" t="s">
         <v>717</v>
       </c>
       <c r="F246" t="s">
-        <v>448</v>
+        <v>711</v>
       </c>
       <c r="G246" t="s">
-        <v>120</v>
+        <v>712</v>
+      </c>
+      <c r="H246" t="s">
+        <v>713</v>
       </c>
       <c r="I246" t="s">
         <v>17</v>
@@ -12968,10 +12985,10 @@
         <v>18</v>
       </c>
       <c r="L246">
-        <v>165</v>
+        <v>1690</v>
       </c>
       <c r="M246">
-        <v>34</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -12988,13 +13005,13 @@
         <v>719</v>
       </c>
       <c r="F247" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G247" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="H247" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="I247" t="s">
         <v>17</v>
@@ -13003,10 +13020,10 @@
         <v>18</v>
       </c>
       <c r="L247">
-        <v>922</v>
+        <v>820</v>
       </c>
       <c r="M247">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
@@ -13014,22 +13031,22 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C248" t="s">
         <v>72</v>
       </c>
       <c r="E248" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F248" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G248" t="s">
-        <v>721</v>
+        <v>79</v>
       </c>
       <c r="H248" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I248" t="s">
         <v>17</v>
@@ -13038,33 +13055,33 @@
         <v>18</v>
       </c>
       <c r="L248">
-        <v>664</v>
+        <v>1383</v>
       </c>
       <c r="M248">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>725</v>
+      <c r="B249" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="C249" t="s">
         <v>72</v>
       </c>
       <c r="E249" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="F249" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G249" t="s">
-        <v>721</v>
+        <v>79</v>
       </c>
       <c r="H249" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I249" t="s">
         <v>17</v>
@@ -13072,34 +13089,28 @@
       <c r="J249" t="s">
         <v>18</v>
       </c>
-      <c r="L249">
-        <v>1690</v>
-      </c>
-      <c r="M249">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>727</v>
+      <c r="B250" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="C250" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" t="s">
-        <v>728</v>
+        <v>72</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="F250" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G250" t="s">
-        <v>721</v>
+        <v>79</v>
       </c>
       <c r="H250" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="I250" t="s">
         <v>17</v>
@@ -13107,34 +13118,28 @@
       <c r="J250" t="s">
         <v>18</v>
       </c>
-      <c r="L250">
-        <v>820</v>
-      </c>
-      <c r="M250">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>729</v>
+      <c r="B251" s="4" t="s">
+        <v>742</v>
       </c>
       <c r="C251" t="s">
         <v>72</v>
       </c>
       <c r="E251" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="F251" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="G251" t="s">
         <v>79</v>
       </c>
-      <c r="H251" t="s">
-        <v>732</v>
+      <c r="H251" s="5" t="s">
+        <v>744</v>
       </c>
       <c r="I251" t="s">
         <v>17</v>
@@ -13142,14 +13147,11 @@
       <c r="J251" t="s">
         <v>18</v>
       </c>
-      <c r="L251">
-        <v>1383</v>
-      </c>
-      <c r="M251">
-        <v>274</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H251" r:id="rId1" xr:uid="{2BE1BB72-E344-46F6-927B-3B6BF5744FDB}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>